--- a/test/file2.xlsx
+++ b/test/file2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6E3657465EED7B3D68F2F4F0FC8208866CF0AD16" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B6BEBC0-9A64-A947-BA57-54BFAD2012C6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6E3657465EED7B3D68F2F4F0FC8208866CF0AD16" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9438D1AD-59E3-5F4B-8107-9675FB6B87B0}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
   <si>
     <t>节点名称</t>
   </si>
@@ -638,13 +638,6 @@
   </si>
   <si>
     <t>[D1,VNF1,D1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>App3</t>
-  </si>
-  <si>
-    <t>[D1,VNF1,D2]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1058,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1685,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -2127,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -2161,13 +2154,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>161</v>
-      </c>
+    <row r="4" spans="1:2" ht="17" thickBot="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/test/file2.xlsx
+++ b/test/file2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_6E3657465EED7B3D68F2F4F0FC8208866CF0AD16" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9438D1AD-59E3-5F4B-8107-9675FB6B87B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD0113-D917-4448-A2CC-2306F533E7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14378" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="162">
   <si>
     <t>节点名称</t>
   </si>
@@ -203,9 +203,6 @@
     <t>指数型</t>
   </si>
   <si>
-    <t>15s</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>指数故障间隔时间</t>
   </si>
   <si>
-    <t>240s</t>
-  </si>
-  <si>
     <t>10min</t>
   </si>
   <si>
@@ -640,12 +634,27 @@
     <t>[D1,VNF1,D1]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>EF1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VsF1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,7 +780,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,13 +1060,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="49" thickBot="1">
+    <row r="1" spans="1:3" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1086,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1095,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1104,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1113,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1113,40 +1122,40 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -1155,9 +1164,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+    <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -1166,20 +1175,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1188,9 +1197,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1199,20 +1208,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1221,9 +1230,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1232,9 +1241,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1243,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1">
+    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1364,304 +1373,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" thickBot="1">
+    <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
-      <c r="A7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
-      <c r="A9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1678,13 +1687,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="161" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="65" thickBot="1">
+    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,26 +1745,26 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
@@ -1767,26 +1776,26 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>45</v>
@@ -1798,26 +1807,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
@@ -1829,128 +1838,128 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="49" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="G6" s="4">
         <v>0.9</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E7" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="G7" s="4">
         <v>0.9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="49" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4">
         <v>0.9</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1968,142 +1977,142 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" thickBot="1">
+    <row r="1" spans="1:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
         <v>0.9</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="6">
         <v>0.9</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1">
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2118,45 +2127,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1">
+    <row r="1" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
